--- a/question.xlsx
+++ b/question.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\11.Portfolio\CBT\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E1D921-B6D4-4EC3-BBF1-C65C498F3471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC3E32-C9B4-4731-AD9F-9D4F806C86D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C191E924-4B27-4F02-B810-ABA436470E47}"/>
   </bookViews>
@@ -150,29 +150,11 @@
 Which one among the following will be the final convolution output of 𝑓 with 𝑤 after the padding zeros are removed from the output?</t>
   </si>
   <si>
-    <t>https://ibb.co/SDNXDwgk</t>
-  </si>
-  <si>
-    <t>https://ibb.co/Gz1ppZj</t>
-  </si>
-  <si>
-    <t>https://ibb.co/chGd9wG0</t>
-  </si>
-  <si>
-    <t>https://ibb.co/rGdD4rwJ</t>
-  </si>
-  <si>
-    <t>https://ibb.co/DfgJ2m7D</t>
-  </si>
-  <si>
     <t>Figure below shows the scatterplot of training pixels of water (w), sand (s), forest (f) and commercial (c) in bands 1 and 2. 
 Pixel ‘A’ having digital number 4 and 6 in band 1 and band 2, respectively, is to be classified using k-nearest neighbor classifier having the value of k equal to 5. 
 The assigned class for the pixel ‘A’ is _____.</t>
   </si>
   <si>
-    <t>https://ibb.co/F4MJpGBw</t>
-  </si>
-  <si>
     <t>forest</t>
   </si>
   <si>
@@ -227,9 +209,6 @@
     <t>The histogram of a red band in a 3-bit satellite image is shown below. Which of the following statements is/are correct?</t>
   </si>
   <si>
-    <t>https://ibb.co/nq1qg1Kk</t>
-  </si>
-  <si>
     <t>There are more darker pixels in the image</t>
   </si>
   <si>
@@ -280,15 +259,9 @@
 pixel at location (5, 4) in the output image is to be filled with the value from coordinate (5.3, 3.7) in the input image. The brightness value of the pixel at location (5, 4) in the rectified output image is ______ (Answer in integer).</t>
   </si>
   <si>
-    <t>https://ibb.co/zTvfN78B</t>
-  </si>
-  <si>
     <t>The error matrix resulting from randomly selected test pixels for a classified image is given below. The Producer’s accuracy of class 1 is ____________ % (rounded off to 1 decimal place).</t>
   </si>
   <si>
-    <t>https://ibb.co/M5Dm0XmY</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -344,6 +317,33 @@
   </si>
   <si>
     <t>question_type</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Ngx6g2q0/q-74.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Zz1jDvh6/q-74d.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/DDr052Rn/q-74c.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/N28zqr85/q-74b.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/NckCC0z/q-74a.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/60xbQ64P/q-75.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/9m4m84dY/q-79.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/hJz8CZX4/q-83.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/x8SNT4Np/q-84.png</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +381,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -433,6 +439,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ED157A-71BC-4CDA-812B-E5B97384D522}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,7 +778,7 @@
     <col min="7" max="7" width="8.88671875" style="6"/>
     <col min="8" max="9" width="15.21875" style="5" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="32.88671875" style="5" customWidth="1"/>
     <col min="12" max="12" width="22.6640625" style="5" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="6"/>
   </cols>
@@ -783,19 +800,19 @@
         <v>6</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -821,10 +838,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H2" s="2">
         <v>1066</v>
@@ -855,10 +872,10 @@
         <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H3" s="2">
         <v>1067</v>
@@ -889,10 +906,10 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2">
         <v>1068</v>
@@ -924,7 +941,7 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H5" s="2">
         <v>1069</v>
@@ -937,7 +954,7 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
@@ -950,7 +967,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="9"/>
       <c r="G6" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H6" s="2">
         <v>1070</v>
@@ -963,7 +980,7 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
@@ -976,7 +993,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="9"/>
       <c r="G7" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H7" s="2">
         <v>1071</v>
@@ -1002,7 +1019,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="9"/>
       <c r="G8" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H8" s="2">
         <v>1072</v>
@@ -1015,7 +1032,7 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1028,7 +1045,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="9"/>
       <c r="G9" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H9" s="2">
         <v>1073</v>
@@ -1041,102 +1058,102 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1074</v>
+      </c>
+      <c r="I10" s="13">
+        <v>2</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1074</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="F11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1075</v>
+      </c>
+      <c r="I11" s="13">
         <v>2</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1075</v>
-      </c>
-      <c r="I11" s="3">
-        <v>2</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="1"/>
+      <c r="K11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H12" s="2">
         <v>1076</v>
@@ -1152,7 +1169,7 @@
     </row>
     <row r="13" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1167,10 +1184,10 @@
         <v>2.5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H13" s="2">
         <v>1077</v>
@@ -1186,23 +1203,23 @@
     </row>
     <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H14" s="2">
         <v>1078</v>
@@ -1211,68 +1228,68 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="12">
         <v>1079</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="13">
         <v>2</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>88</v>
+      <c r="J15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H16" s="2">
         <v>1080</v>
@@ -1281,32 +1298,32 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H17" s="2">
         <v>1081</v>
@@ -1315,32 +1332,32 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H18" s="2">
         <v>1082</v>
@@ -1353,63 +1370,63 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1083</v>
+      </c>
+      <c r="I19" s="13">
+        <v>2</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="2">
-        <v>1083</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="L19" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1084</v>
+      </c>
+      <c r="I20" s="13">
         <v>2</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1084</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>92</v>
+      <c r="K20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">

--- a/question.xlsx
+++ b/question.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\11.Portfolio\CBT\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC3E32-C9B4-4731-AD9F-9D4F806C86D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D909A4A-A786-4781-8731-9954B7E86B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C191E924-4B27-4F02-B810-ABA436470E47}"/>
   </bookViews>
@@ -350,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +366,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -415,10 +423,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -450,8 +459,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -766,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ED157A-71BC-4CDA-812B-E5B97384D522}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,7 +1085,7 @@
       <c r="D10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="15" t="s">
         <v>90</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -1092,7 +1103,7 @@
       <c r="J10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="15" t="s">
         <v>89</v>
       </c>
       <c r="L10" s="11"/>
@@ -1438,6 +1449,10 @@
       <c r="I22" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K10" r:id="rId1" xr:uid="{C9818228-2B23-46A6-9BCB-8D55C875DFBF}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{29F566B4-BF1B-4896-89A3-399434AC4D74}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/question.xlsx
+++ b/question.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\11.Portfolio\CBT\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D909A4A-A786-4781-8731-9954B7E86B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261AE8B5-E83E-43A1-913E-7F72687150B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C191E924-4B27-4F02-B810-ABA436470E47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C191E924-4B27-4F02-B810-ABA436470E47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
   <si>
     <t>question_id</t>
   </si>
@@ -155,9 +156,6 @@
 The assigned class for the pixel ‘A’ is _____.</t>
   </si>
   <si>
-    <t>forest</t>
-  </si>
-  <si>
     <t>sand</t>
   </si>
   <si>
@@ -344,6 +342,45 @@
   </si>
   <si>
     <t>https://i.ibb.co/x8SNT4Np/q-84.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest  </t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Question </t>
+  </si>
+  <si>
+    <t>For Option A</t>
+  </si>
+  <si>
+    <t>For Option B</t>
+  </si>
+  <si>
+    <t>For Option C</t>
+  </si>
+  <si>
+    <t>For Option D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Mcq Ans Only </t>
+  </si>
+  <si>
+    <t>question no</t>
+  </si>
+  <si>
+    <t>easch question mark</t>
+  </si>
+  <si>
+    <t>mcq, msa, nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image url </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ans for MSQ &amp; NAT </t>
   </si>
 </sst>
 </file>
@@ -427,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -439,9 +476,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -458,7 +494,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -777,21 +813,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ED157A-71BC-4CDA-812B-E5B97384D522}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="85.109375" style="5" customWidth="1"/>
-    <col min="2" max="5" width="24.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="53.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" style="5" customWidth="1"/>
+    <col min="4" max="5" width="24.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="8" max="9" width="15.21875" style="5" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" style="5" customWidth="1"/>
     <col min="11" max="11" width="32.88671875" style="5" customWidth="1"/>
     <col min="12" max="12" width="22.6640625" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -810,20 +846,20 @@
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>84</v>
+      <c r="F1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>85</v>
+      <c r="I1" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -849,10 +885,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="2">
         <v>1066</v>
@@ -883,10 +919,10 @@
         <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" s="2">
         <v>1067</v>
@@ -917,10 +953,10 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="2">
         <v>1068</v>
@@ -950,9 +986,9 @@
       <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" s="2">
         <v>1069</v>
@@ -965,7 +1001,7 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
@@ -976,9 +1012,9 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="2">
         <v>1070</v>
@@ -991,7 +1027,7 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
@@ -1002,9 +1038,9 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="2">
         <v>1071</v>
@@ -1024,13 +1060,15 @@
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="2">
         <v>1072</v>
@@ -1043,7 +1081,7 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1054,9 +1092,9 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="2">
         <v>1073</v>
@@ -1069,102 +1107,102 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1074</v>
+      </c>
+      <c r="I10" s="12">
+        <v>2</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" s="13" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1075</v>
+      </c>
+      <c r="I11" s="12">
+        <v>2</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1074</v>
-      </c>
-      <c r="I10" s="13">
-        <v>2</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="12">
-        <v>1075</v>
-      </c>
-      <c r="I11" s="13">
-        <v>2</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" s="11"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12" s="2">
         <v>1076</v>
@@ -1180,7 +1218,7 @@
     </row>
     <row r="13" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1195,10 +1233,10 @@
         <v>2.5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" s="2">
         <v>1077</v>
@@ -1214,23 +1252,23 @@
     </row>
     <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" s="2">
         <v>1078</v>
@@ -1239,68 +1277,68 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1079</v>
+      </c>
+      <c r="I15" s="12">
+        <v>2</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="10" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="12">
-        <v>1079</v>
-      </c>
-      <c r="I15" s="13">
-        <v>2</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H16" s="2">
         <v>1080</v>
@@ -1309,32 +1347,32 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="2">
         <v>1081</v>
@@ -1343,32 +1381,32 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="2">
         <v>1082</v>
@@ -1381,78 +1419,191 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="13" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1083</v>
+      </c>
+      <c r="I19" s="12">
+        <v>2</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="20" spans="1:12" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="12">
-        <v>1083</v>
-      </c>
-      <c r="I19" s="13">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1084</v>
+      </c>
+      <c r="I20" s="12">
         <v>2</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K20" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L20" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="12">
-        <v>1084</v>
-      </c>
-      <c r="I20" s="13">
-        <v>2</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
     <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K10" r:id="rId1" xr:uid="{C9818228-2B23-46A6-9BCB-8D55C875DFBF}"/>
     <hyperlink ref="E10" r:id="rId2" xr:uid="{29F566B4-BF1B-4896-89A3-399434AC4D74}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{35BA1F43-6119-4DB3-BC95-5EF418388D01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B7D8CC-657E-4108-BF3A-9DF263BDB468}">
+  <dimension ref="E4:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="29.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>